--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2401.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2401.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.080934633936617</v>
+        <v>1.172892689704895</v>
       </c>
       <c r="B1">
-        <v>2.375013194726225</v>
+        <v>2.36356520652771</v>
       </c>
       <c r="C1">
-        <v>7.108230164437651</v>
+        <v>5.020647525787354</v>
       </c>
       <c r="D1">
-        <v>1.753681777281259</v>
+        <v>2.341699361801147</v>
       </c>
       <c r="E1">
-        <v>0.9812756829695738</v>
+        <v>1.22899329662323</v>
       </c>
     </row>
   </sheetData>
